--- a/biology/Zoologie/Dicrostonyx/Dicrostonyx.xlsx
+++ b/biology/Zoologie/Dicrostonyx/Dicrostonyx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dicrostonyx est un genre de rongeurs qui comprend des espèces de lemmings appelées lemmings arctiques[1] ou encore lemmings à collier pour les distinguer des lemmings à bande (genre Lemmus)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dicrostonyx est un genre de rongeurs qui comprend des espèces de lemmings appelées lemmings arctiques ou encore lemmings à collier pour les distinguer des lemmings à bande (genre Lemmus).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition passée</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce[Laquelle ?] était autrefois présente en France (au moins lors des périodes froides du Quaternaire), comme en témoignent des ossements anciens (par exemple trouvés à Cambrai ou dans une brèche calcaire à Maubeuge) qui montrent qu'elle cohabitait avec le lemming des toundras de Norvège et le campagnol des neiges[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce[Laquelle ?] était autrefois présente en France (au moins lors des périodes froides du Quaternaire), comme en témoignent des ossements anciens (par exemple trouvés à Cambrai ou dans une brèche calcaire à Maubeuge) qui montrent qu'elle cohabitait avec le lemming des toundras de Norvège et le campagnol des neiges.
 </t>
         </is>
       </c>
@@ -542,15 +556,17 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (12 mars 2016)[4] et Mammal Species of the World (version 3, 2005)  (12 mars 2016)[5]:
-Dicrostonyx groenlandicus (Traill, 1823) - lemming arctique ou lemming à collier ou lemming variable [1] ou lemming à collerette[6]
-Dicrostonyx hudsonius (Pallas, 1778) - Lemming d'Ungava[7],[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (12 mars 2016) et Mammal Species of the World (version 3, 2005)  (12 mars 2016):
+Dicrostonyx groenlandicus (Traill, 1823) - lemming arctique ou lemming à collier ou lemming variable  ou lemming à collerette
+Dicrostonyx hudsonius (Pallas, 1778) - Lemming d'Ungava,
 Dicrostonyx nelsoni Merriam, 1900
 Dicrostonyx nunatakensis Youngman, 1967
 Dicrostonyx richardsoni Merriam, 1900
-Dicrostonyx torquatus (Pallas, 1778) - lemming arctique ou lemming à collier[1] ou lemming variable [8]
+Dicrostonyx torquatus (Pallas, 1778) - lemming arctique ou lemming à collier ou lemming variable 
 Dicrostonyx unalascensis Merriam, 1900
 Dicrostonyx vinogradovi Ognev, 1948</t>
         </is>
